--- a/results/mod3.corrupt_salienceBYhealth.eff.COMB.xlsx
+++ b/results/mod3.corrupt_salienceBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0962995606720528</v>
+        <v>0.0962997232411973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0315978403029279</v>
+        <v>0.0315976339244037</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0343689316890658</v>
+        <v>0.0343694987526851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15823018965504</v>
+        <v>0.15822994772971</v>
       </c>
       <c r="G2" t="n">
-        <v>3.04766274368218</v>
+        <v>3.04768779433268</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00230628605403426</v>
+        <v>0.00230609382232777</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0445195284180307</v>
+        <v>-0.0445197343303691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0223463791437981</v>
+        <v>0.0223461962955143</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0883176267247521</v>
+        <v>-0.0883174742610394</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.000721430111309401</v>
+        <v>-0.00072199439969875</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.9922479669547</v>
+        <v>-1.99227348321942</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0463438576616261</v>
+        <v>0.0463410594700859</v>
       </c>
     </row>
   </sheetData>
